--- a/src/test/resources/ExcelTestData/VehicleInsuranceCalcualator_TestData.xlsx
+++ b/src/test/resources/ExcelTestData/VehicleInsuranceCalcualator_TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\eclipse-workspace\SDET_Nov_2019\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E2768-474D-4B6A-81C7-3E522B842376}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11FF3EA-FF04-4A08-A25A-8EEB06878A30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A380FA76-9CC6-4F4D-9280-5EC28A377BCB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>TC No</t>
   </si>
@@ -156,9 +156,6 @@
     <t>??</t>
   </si>
   <si>
-    <t>speeding,Other</t>
-  </si>
-  <si>
     <t>Insurant_gender</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>238.00</t>
   </si>
   <si>
-    <t>701.00</t>
-  </si>
-  <si>
     <t>1,376.00</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>702.00</t>
-  </si>
-  <si>
     <t>1,379.00</t>
   </si>
   <si>
@@ -256,6 +247,12 @@
   </si>
   <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>speeding;Other</t>
+  </si>
+  <si>
+    <t>250.00</t>
   </si>
 </sst>
 </file>
@@ -669,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CEB0C-D017-479D-8DDE-08C67B4AF72D}">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>33</v>
@@ -759,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>17</v>
@@ -774,7 +771,7 @@
         <v>20</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>21</v>
@@ -807,7 +804,7 @@
         <v>30</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
@@ -815,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -866,7 +863,7 @@
         <v>32854</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
         <v>37</v>
@@ -878,7 +875,7 @@
         <v>38</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s">
         <v>42</v>
@@ -899,22 +896,22 @@
         <v>41</v>
       </c>
       <c r="AD2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -922,13 +919,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>900</v>
@@ -937,19 +934,19 @@
         <v>900</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3">
         <v>888</v>
@@ -973,10 +970,10 @@
         <v>20801</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U3">
         <v>444061</v>
@@ -985,7 +982,7 @@
         <v>38</v>
       </c>
       <c r="W3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s">
         <v>42</v>
@@ -1003,25 +1000,25 @@
         <v>40</v>
       </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -1029,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1044,19 +1041,19 @@
         <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -1080,10 +1077,10 @@
         <v>20801</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U4">
         <v>444061</v>
@@ -1092,7 +1089,7 @@
         <v>38</v>
       </c>
       <c r="W4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
         <v>42</v>
@@ -1110,25 +1107,25 @@
         <v>40</v>
       </c>
       <c r="AC4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="AI4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
